--- a/xlsx/全国公共广播电台_intext.xlsx
+++ b/xlsx/全国公共广播电台_intext.xlsx
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E5%BB%A3%E6%92%AD</t>
   </si>
   <si>
-    <t>公共廣播</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_全国公共广播电台</t>
+    <t>公共广播</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_全国公共广播电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%91</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓哥倫比亞特區</t>
+    <t>华盛顿哥伦比亚特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8C%97%E5%8C%BA_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA)</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%92%AD%E8%81%AF%E8%B3%A3</t>
   </si>
   <si>
-    <t>廣播聯賣</t>
+    <t>广播联卖</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_NPR_stations</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%9B%E6%A8%82</t>
   </si>
   <si>
-    <t>娛樂</t>
+    <t>娱乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%AC%E4%BC%97</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%9B%BB%E8%A6%96%E7%B6%B2_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>公共電視網 (美國)</t>
+    <t>公共电视网 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>公共媒體</t>
+    <t>公共媒体</t>
   </si>
 </sst>
 </file>
